--- a/salaries.xlsx
+++ b/salaries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mp/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mp/Projects/globe-salaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1973BC-1196-354D-8688-2FA7202DD4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E2A2A3-0C56-6441-B4EE-85710B9C16AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,9 +255,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -267,13 +264,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56D4CEB-DB98-664F-BEDA-62CEB74711AB}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -620,77 +620,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -703,13 +703,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="8" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -739,7 +745,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -765,7 +771,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -789,7 +795,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -813,7 +819,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -837,7 +843,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,7 +867,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,7 +891,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,7 +915,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,7 +939,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,7 +963,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -981,7 +987,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,7 +1011,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,7 +1035,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1059,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1083,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1101,7 +1107,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1131,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1149,10 +1155,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="4">
@@ -1187,399 +1193,406 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C364D5-51E3-4E42-AAC0-516D546E41CE}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>571842.27024780121</v>
       </c>
       <c r="D2" s="5">
         <v>102.55017083950251</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>555456.61826473067</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="9">
         <v>589956.34825393022</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>54.207960000000028</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>544764.35847112874</v>
       </c>
       <c r="D3" s="5">
         <v>97.694208587059322</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>38.809640000000016</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>553544.35489274643</v>
       </c>
       <c r="D4" s="5">
         <v>99.268751393447076</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>553562.10248409933</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <v>568309.85239409574</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>69.658360000000044</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>563070.03264292958</v>
       </c>
       <c r="D5" s="5">
         <v>100.97701944474036</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>567362.05448217946</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>568715.46861874487</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>54.713760000000029</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>592892.62085962016</v>
       </c>
       <c r="D6" s="5">
         <v>106.32519266595477</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>568466.7158710158</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>572888.67382695305</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>620342.08233340143</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>13.167359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>548644.74047427531</v>
       </c>
       <c r="D7" s="5">
         <v>98.39008900382666</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>554348.61394455784</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>67.248600000000039</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>555516.01060760999</v>
       </c>
       <c r="D8" s="5">
         <v>99.622334262213187</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>568147.78591143654</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>38.482320000000016</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>551752.3503245255</v>
       </c>
       <c r="D9" s="5">
         <v>98.94738589778936</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>542752.44723663153</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <v>554567.80271210847</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>15.805679999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>548743.15350523696</v>
       </c>
       <c r="D10" s="5">
         <v>98.407737704636361</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>539253.28727023304</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>555658.85635425418</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>26.69868000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>557440.28287539259</v>
       </c>
       <c r="D11" s="5">
         <v>99.967419716839174</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>556572.63290531631</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>29.179560000000016</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>548431.37165067391</v>
       </c>
       <c r="D12" s="5">
         <v>98.351824939677172</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <v>561138.24552982126</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>39.807880000000019</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>580480.32562694221</v>
       </c>
       <c r="D13" s="5">
         <v>104.09925893763861</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>574939.27757110284</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <v>600500.27001080045</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>29.198880000000017</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>545742.67746141611</v>
       </c>
       <c r="D14" s="5">
         <v>97.869653434020407</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>545016.75454419316</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>36.947040000000015</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>562192.23073270754</v>
       </c>
       <c r="D15" s="5">
         <v>100.81960062395694</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>561138.24552982126</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>571672.98691947677</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>22.999120000000008</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>557183.53678126866</v>
       </c>
       <c r="D16" s="5">
         <v>100.00000000000003</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>539220.92883715348</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>568444.377775111</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>536.92484000000024</v>
       </c>
     </row>
@@ -1596,375 +1609,381 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF052B40-FA03-8545-B694-6B28A6C2A824}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>607949.07952672208</v>
       </c>
       <c r="D2" s="5">
         <v>103.67488825670593</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>582888.73583308025</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>609861.42771445704</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="9">
         <v>623459.88365940528</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>14.573999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>570328.62076146726</v>
       </c>
       <c r="D3" s="5">
         <v>97.259389015075172</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>548792.89360724692</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>568985.47941917693</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>586574.16296651866</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>10.999439999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>611234.40537621523</v>
       </c>
       <c r="D4" s="5">
         <v>104.23514207039413</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>584840.09360374429</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>608270.91083643353</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <v>641064.35257410293</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>9.9995999999999992</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>587307.17030061013</v>
       </c>
       <c r="D5" s="5">
         <v>100.1547782598486</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>579996.82743158564</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>591374.25005999522</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>597397.7559102365</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>14.199599999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>578221.62180703983</v>
       </c>
       <c r="D6" s="5">
         <v>98.605399773158453</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>567362.05448217946</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>579809.91239649581</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>583192.12768510752</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>15.949319999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>554247.02988119517</v>
       </c>
       <c r="D7" s="5">
         <v>94.516960095205434</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>543279.85119404783</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>556106.7442697708</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>562593.06372254889</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>9.9995999999999992</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>586913.10262848332</v>
       </c>
       <c r="D8" s="5">
         <v>100.08757703650745</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>560732.62930517213</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>568850.95403816155</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>618774.99099963997</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>23.049240000000008</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>594647.14588583552</v>
       </c>
       <c r="D9" s="5">
         <v>101.40648037476521</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>561206.82827313093</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>586304.03216128657</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <v>617692.66770670831</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>5.9997599999999993</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>580004.57915464463</v>
       </c>
       <c r="D10" s="5">
         <v>98.909451395250386</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>570030.72122884914</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>574532.58130325226</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>588343.55808545486</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>10.199639999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>589011.91188094323</v>
       </c>
       <c r="D11" s="5">
         <v>100.44549157581444</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>575610.67002163874</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>588926.91337834182</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>596958.23832953325</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>8.7622800000000005</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>597701.3289468463</v>
       </c>
       <c r="D12" s="5">
         <v>101.92731690241044</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>566888.69554782193</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>596315.49261970469</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <v>616542.06168246735</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>13.49976</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>579141.0794594076</v>
       </c>
       <c r="D13" s="5">
         <v>98.762196900707707</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>566279.85119404772</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>573044.76179047173</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <v>590952.77811112441</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>22.303000000000008</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>576539.79492513044</v>
       </c>
       <c r="D14" s="5">
         <v>98.318594150909931</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>563168.36673466954</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>570338.89355574234</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>583327.73310932447</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>8.9996399999999994</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>586226.98418558692</v>
       </c>
       <c r="D15" s="5">
         <v>100.00000000000003</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>565510.06512729439</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>581042.2467594815</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>598210.00840033614</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>168.5348800000001</v>
       </c>
     </row>
@@ -1981,423 +2000,429 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1053F93C-7242-A044-934B-2F1D5DB8452B}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="275" zoomScaleNormal="275" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>748012.87677723099</v>
       </c>
       <c r="D2" s="5">
         <v>105.46505650136764</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>705609.86439457582</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>734021.60086403461</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="9">
         <v>771634.64538581553</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>25.699080000000009</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>763748.67566131218</v>
       </c>
       <c r="D3" s="5">
         <v>107.68370402726848</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>728475.33901356056</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>770552.26209048356</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>787396.37585503422</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>6.9997199999999991</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>766276.68306732271</v>
       </c>
       <c r="D4" s="5">
         <v>108.04013698743287</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>744643.64574582991</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>771566.36265450623</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <v>815233.64934597374</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>9.9995999999999992</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>709372.0531477374</v>
       </c>
       <c r="D5" s="5">
         <v>100.01694621628548</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>655550.82203288132</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>673612.66126612667</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>735700.11841326242</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>9.8050799999999985</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>675567.74943653995</v>
       </c>
       <c r="D6" s="5">
         <v>95.250754468021512</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>634905.01620064816</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>685992.19968798757</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>696071.6128645147</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>24.278040000000008</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>695821.97513689671</v>
       </c>
       <c r="D7" s="5">
         <v>98.106471427177212</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>666103.47413896548</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>684214.38857554307</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>722420.40681627276</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>26.448960000000014</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>706329.76227780106</v>
       </c>
       <c r="D8" s="5">
         <v>99.58800255976206</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>674492.3796951879</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>686533.42133685341</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>760133.68534741399</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>20.175000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>685856.58479694545</v>
       </c>
       <c r="D9" s="5">
         <v>96.701414792605206</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>634884.7953918156</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>662182.46139563643</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <v>722183.78735149407</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>34.307040000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>724729.34917396691</v>
       </c>
       <c r="D10" s="5">
         <v>102.18222724739918</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>676116.28465138609</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>743222.36889475584</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>774746.06984279375</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>20.999160000000003</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>722782.55580664042</v>
       </c>
       <c r="D11" s="5">
         <v>101.90774176879862</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>662788.67154686188</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>722515.95872330212</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>772989.57757950388</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>20.574960000000004</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>702314.72706054139</v>
       </c>
       <c r="D12" s="5">
         <v>99.021908139211888</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>665134.298638904</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>694362.82048252085</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <v>725023.30241979915</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>10.548119999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>682057.28255453648</v>
       </c>
       <c r="D13" s="5">
         <v>96.16573734893899</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>642426.4970598825</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>668421.25881431182</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <v>720482.3035392923</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>15.085679999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>699094.96834424569</v>
       </c>
       <c r="D14" s="5">
         <v>98.567942645465408</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>650139.32557302294</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>691674.78699147981</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>747551.90207608312</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>48.160440000000023</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>722498.87558060046</v>
       </c>
       <c r="D15" s="5">
         <v>101.86774466180157</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>680762.72050882038</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>723818.63087312132</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>739670.73682947317</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>9.6752399999999987</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>802266.05394753534</v>
       </c>
       <c r="D16" s="5">
         <v>113.11440930435272</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>656159.27637105482</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>672868.41473658942</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>860354.52418096724</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>5.7295199999999991</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>708659.0013099903</v>
       </c>
       <c r="D17" s="5">
         <v>99.999999999999929</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>662048.08306909364</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>693770.62872291706</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <v>748397.57590303617</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>288.48564000000016</v>
       </c>
     </row>
